--- a/results.xlsx
+++ b/results.xlsx
@@ -7,16 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ELM" sheetId="1" r:id="rId1"/>
+    <sheet name="ELM2022-09-14" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Dataset</t>
+  </si>
+  <si>
+    <t>Generations</t>
+  </si>
+  <si>
+    <t>Population_size</t>
   </si>
   <si>
     <t>GA</t>
@@ -626,13 +632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,2208 +666,2670 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>81.23752495009981</v>
+        <v>10</v>
       </c>
       <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>81.34500230308613</v>
+      </c>
+      <c r="E2">
         <v>75.87901120835252</v>
       </c>
-      <c r="D2">
-        <v>81.09933978197451</v>
-      </c>
-      <c r="E2">
-        <v>1.001999616622925</v>
-      </c>
       <c r="F2">
-        <v>0.6609976291656494</v>
+        <v>80.08598188238906</v>
       </c>
       <c r="G2">
-        <v>1.422999858856201</v>
+        <v>1.036969423294067</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>0.7160000801086426</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>2.743001461029053</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>68.8</v>
+        <v>10</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>72</v>
+      </c>
+      <c r="E3">
         <v>44</v>
       </c>
-      <c r="D3">
-        <v>71.2</v>
-      </c>
-      <c r="E3">
-        <v>0.02200007438659668</v>
-      </c>
       <c r="F3">
-        <v>0.01899909973144531</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G3">
-        <v>0.04199981689453125</v>
+        <v>0.02699756622314453</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>0.02200174331665039</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.05100131034851074</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>0.01199984550476074</v>
-      </c>
-      <c r="F4">
-        <v>0.01399922370910645</v>
-      </c>
       <c r="G4">
-        <v>0.02200078964233398</v>
+        <v>0.009999513626098633</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>0.01399898529052734</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.04300022125244141</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>50</v>
       </c>
       <c r="E5">
-        <v>0.007000446319580078</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>0.01397061347961426</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>0.02099823951721191</v>
+        <v>0.01600074768066406</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>0.0169990062713623</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.03499889373779297</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6">
-        <v>0.01102662086486816</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>0.01497101783752441</v>
+        <v>75</v>
       </c>
       <c r="G6">
-        <v>0.02699899673461914</v>
+        <v>0.01299834251403809</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>0.01400113105773926</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.02999973297119141</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>75</v>
       </c>
       <c r="E7">
-        <v>0.01200008392333984</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>0.01600193977355957</v>
+        <v>75</v>
       </c>
       <c r="G7">
-        <v>0.0149991512298584</v>
+        <v>0.01099801063537598</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>0.01199984550476074</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.04200053215026855</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>97.45454545454545</v>
+        <v>10</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>83.27272727272728</v>
+      </c>
+      <c r="E8">
         <v>53.81818181818182</v>
       </c>
-      <c r="D8">
-        <v>86.54545454545455</v>
-      </c>
-      <c r="E8">
-        <v>0.04199767112731934</v>
-      </c>
       <c r="F8">
-        <v>0.02699971199035645</v>
+        <v>97.81818181818181</v>
       </c>
       <c r="G8">
-        <v>0.04600024223327637</v>
+        <v>0.03599905967712402</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>0.0240018367767334</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.0859980583190918</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>76</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>75.33333333333333</v>
       </c>
-      <c r="D9">
-        <v>76.66666666666667</v>
-      </c>
-      <c r="E9">
-        <v>0.02400088310241699</v>
-      </c>
       <c r="F9">
-        <v>0.01900029182434082</v>
+        <v>76</v>
       </c>
       <c r="G9">
-        <v>0.04300069808959961</v>
+        <v>0.02399849891662598</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>0.02100205421447754</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.05699849128723145</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>94.73684210526315</v>
+        <v>10</v>
       </c>
       <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>93.85964912280701</v>
+      </c>
+      <c r="E10">
         <v>62.28070175438597</v>
       </c>
-      <c r="D10">
-        <v>96.49122807017544</v>
-      </c>
-      <c r="E10">
-        <v>0.02099847793579102</v>
-      </c>
       <c r="F10">
-        <v>0.0689997673034668</v>
+        <v>98.24561403508771</v>
       </c>
       <c r="G10">
-        <v>0.03200006484985352</v>
+        <v>0.02100038528442383</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>0.07200145721435547</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.05899906158447266</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>82.05128205128204</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>82.05128205128204</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>82.05128205128204</v>
       </c>
       <c r="E11">
-        <v>0.01799869537353516</v>
+        <v>82.05128205128204</v>
       </c>
       <c r="F11">
-        <v>0.0670020580291748</v>
+        <v>82.05128205128204</v>
       </c>
       <c r="G11">
-        <v>0.01999950408935547</v>
+        <v>0.01399898529052734</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>0.07200145721435547</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.05200028419494629</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>81.02189781021897</v>
+        <v>10</v>
       </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>85.40145985401459</v>
+      </c>
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>83.94160583941606</v>
-      </c>
-      <c r="E12">
-        <v>0.02499938011169434</v>
-      </c>
       <c r="F12">
-        <v>0.03300189971923828</v>
+        <v>78.83211678832117</v>
       </c>
       <c r="G12">
-        <v>0.03899765014648438</v>
+        <v>0.02800130844116211</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>0.03099775314331055</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.06300115585327148</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>68.96551724137932</v>
+        <v>10</v>
       </c>
       <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>67.24137931034483</v>
+      </c>
+      <c r="E13">
         <v>70.68965517241379</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>70.68965517241379</v>
       </c>
-      <c r="E13">
-        <v>0.02000045776367188</v>
-      </c>
-      <c r="F13">
-        <v>0.09400033950805664</v>
-      </c>
       <c r="G13">
-        <v>0.02900004386901855</v>
+        <v>0.01600074768066406</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>0.0950005054473877</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.06899929046630859</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>53.46820809248555</v>
+        <v>10</v>
       </c>
       <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>56.06936416184971</v>
+      </c>
+      <c r="E14">
         <v>67.91907514450867</v>
       </c>
-      <c r="D14">
-        <v>58.09248554913295</v>
-      </c>
-      <c r="E14">
-        <v>0.04300045967102051</v>
-      </c>
       <c r="F14">
-        <v>0.06400299072265625</v>
+        <v>53.75722543352601</v>
       </c>
       <c r="G14">
-        <v>0.06099796295166016</v>
+        <v>0.04099941253662109</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>0.07599854469299316</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.109999418258667</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>74.6875</v>
+        <v>10</v>
       </c>
       <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>67.34375</v>
+      </c>
+      <c r="E15">
         <v>53.125</v>
       </c>
-      <c r="D15">
-        <v>74.375</v>
-      </c>
-      <c r="E15">
-        <v>0.06399965286254883</v>
-      </c>
       <c r="F15">
-        <v>0.1039998531341553</v>
+        <v>74.0625</v>
       </c>
       <c r="G15">
-        <v>0.09400129318237305</v>
+        <v>0.06499791145324707</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>0.1090011596679688</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.1609978675842285</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>4.828937990021383</v>
+        <v>10</v>
       </c>
       <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>4.73984319315752</v>
+      </c>
+      <c r="E16">
         <v>0.3920171062009979</v>
       </c>
-      <c r="D16">
-        <v>4.775481111903065</v>
-      </c>
-      <c r="E16">
-        <v>0.8239982128143311</v>
-      </c>
       <c r="F16">
-        <v>0.4270002841949463</v>
+        <v>6.094084105488239</v>
       </c>
       <c r="G16">
-        <v>0.9000008106231689</v>
+        <v>0.6239967346191406</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>0.4640035629272461</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>3.199997425079346</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>90.74074074074075</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>90.74074074074075</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>90.74074074074075</v>
       </c>
       <c r="E17">
-        <v>0.02699947357177734</v>
+        <v>90.74074074074075</v>
       </c>
       <c r="F17">
+        <v>90.74074074074075</v>
+      </c>
+      <c r="G17">
+        <v>0.02199864387512207</v>
+      </c>
+      <c r="H17">
+        <v>0.04700136184692383</v>
+      </c>
+      <c r="I17">
+        <v>0.06100034713745117</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="E18">
+        <v>14.35185185185185</v>
+      </c>
+      <c r="F18">
+        <v>14.35185185185185</v>
+      </c>
+      <c r="G18">
+        <v>0.06100249290466309</v>
+      </c>
+      <c r="H18">
+        <v>1.719000101089478</v>
+      </c>
+      <c r="I18">
+        <v>0.1479990482330322</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>81.60919540229885</v>
+      </c>
+      <c r="E19">
+        <v>64.36781609195403</v>
+      </c>
+      <c r="F19">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="G19">
+        <v>0.01699972152709961</v>
+      </c>
+      <c r="H19">
+        <v>0.1080005168914795</v>
+      </c>
+      <c r="I19">
+        <v>0.06099891662597656</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>78.57142857142857</v>
+      </c>
+      <c r="E20">
+        <v>61.90476190476191</v>
+      </c>
+      <c r="F20">
+        <v>76.19047619047619</v>
+      </c>
+      <c r="G20">
+        <v>0.0169985294342041</v>
+      </c>
+      <c r="H20">
+        <v>0.1310007572174072</v>
+      </c>
+      <c r="I20">
+        <v>0.05100011825561523</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="E21">
+        <v>9.595959595959595</v>
+      </c>
+      <c r="F21">
+        <v>22.72727272727273</v>
+      </c>
+      <c r="G21">
+        <v>0.0280003547668457</v>
+      </c>
+      <c r="H21">
+        <v>0.03599977493286133</v>
+      </c>
+      <c r="I21">
+        <v>0.07699990272521973</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>25.42372881355932</v>
+      </c>
+      <c r="E22">
+        <v>24.06779661016949</v>
+      </c>
+      <c r="F22">
+        <v>27.11864406779661</v>
+      </c>
+      <c r="G22">
+        <v>0.04699993133544922</v>
+      </c>
+      <c r="H22">
         <v>0.04700088500976562</v>
       </c>
-      <c r="G17">
-        <v>0.02900028228759766</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="C18">
-        <v>14.35185185185185</v>
-      </c>
-      <c r="D18">
-        <v>15.74074074074074</v>
-      </c>
-      <c r="E18">
-        <v>0.06499981880187988</v>
-      </c>
-      <c r="F18">
-        <v>1.573000907897949</v>
-      </c>
-      <c r="G18">
-        <v>0.1090281009674072</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>93.10344827586206</v>
-      </c>
-      <c r="C19">
-        <v>64.36781609195403</v>
-      </c>
-      <c r="D19">
-        <v>95.40229885057471</v>
-      </c>
-      <c r="E19">
-        <v>0.02699875831604004</v>
-      </c>
-      <c r="F19">
-        <v>0.1020340919494629</v>
-      </c>
-      <c r="G19">
-        <v>0.0299685001373291</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="C20">
-        <v>61.90476190476191</v>
-      </c>
-      <c r="D20">
-        <v>73.80952380952381</v>
-      </c>
-      <c r="E20">
-        <v>0.01596498489379883</v>
-      </c>
-      <c r="F20">
-        <v>0.1230020523071289</v>
-      </c>
-      <c r="G20">
-        <v>0.02899837493896484</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>21.71717171717172</v>
-      </c>
-      <c r="C21">
-        <v>9.595959595959595</v>
-      </c>
-      <c r="D21">
-        <v>24.74747474747475</v>
-      </c>
-      <c r="E21">
-        <v>0.03200316429138184</v>
-      </c>
-      <c r="F21">
-        <v>0.03499960899353027</v>
-      </c>
-      <c r="G21">
-        <v>0.03899788856506348</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>26.10169491525424</v>
-      </c>
-      <c r="C22">
-        <v>24.06779661016949</v>
-      </c>
-      <c r="D22">
-        <v>26.4406779661017</v>
-      </c>
-      <c r="E22">
-        <v>0.02699971199035645</v>
-      </c>
-      <c r="F22">
-        <v>0.04199957847595215</v>
-      </c>
-      <c r="G22">
-        <v>0.07799863815307617</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.06299829483032227</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>64.17910447761194</v>
+        <v>10</v>
       </c>
       <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>79.85074626865671</v>
+      </c>
+      <c r="E23">
         <v>54.47761194029851</v>
       </c>
-      <c r="D23">
-        <v>82.08955223880598</v>
-      </c>
-      <c r="E23">
-        <v>0.02600002288818359</v>
-      </c>
       <c r="F23">
-        <v>0.1000292301177979</v>
+        <v>81.34328358208955</v>
       </c>
       <c r="G23">
-        <v>0.03296899795532227</v>
+        <v>0.02800154685974121</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>0.1089990139007568</v>
       </c>
       <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.04300045967102051</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>26.38888888888889</v>
+        <v>10</v>
       </c>
       <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
         <v>19.44444444444445</v>
       </c>
-      <c r="D24">
-        <v>45.83333333333333</v>
-      </c>
       <c r="E24">
-        <v>0.01603412628173828</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="F24">
-        <v>0.07896709442138672</v>
+        <v>40.27777777777778</v>
       </c>
       <c r="G24">
-        <v>0.02503466606140137</v>
+        <v>0.0240020751953125</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>0.07999849319458008</v>
       </c>
       <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.04000020027160645</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>76.7</v>
+        <v>10</v>
       </c>
       <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>77.3</v>
+      </c>
+      <c r="E25">
         <v>65.34999999999999</v>
       </c>
-      <c r="D25">
-        <v>76.44999999999999</v>
-      </c>
-      <c r="E25">
-        <v>0.19100022315979</v>
-      </c>
       <c r="F25">
-        <v>0.1080002784729004</v>
+        <v>80.2</v>
       </c>
       <c r="G25">
-        <v>0.1760315895080566</v>
+        <v>0.1670000553131104</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>0.1010000705718994</v>
       </c>
       <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.6300008296966553</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>90</v>
       </c>
       <c r="E26">
-        <v>0.01500034332275391</v>
+        <v>90</v>
       </c>
       <c r="F26">
-        <v>0.02700185775756836</v>
+        <v>90</v>
       </c>
       <c r="G26">
-        <v>0.0189964771270752</v>
+        <v>0.02100110054016113</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>0.02699851989746094</v>
       </c>
       <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.04399967193603516</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>30.23255813953488</v>
+        <v>10</v>
       </c>
       <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>27.90697674418605</v>
+      </c>
+      <c r="E27">
         <v>6.976744186046512</v>
       </c>
-      <c r="D27">
-        <v>30.23255813953488</v>
-      </c>
-      <c r="E27">
-        <v>0.01896405220031738</v>
-      </c>
       <c r="F27">
-        <v>0.02499890327453613</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="G27">
-        <v>0.02699899673461914</v>
+        <v>0.01599955558776855</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>0.02199888229370117</v>
       </c>
       <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.03100013732910156</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>70.96774193548387</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>70.96774193548387</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>70.96774193548387</v>
       </c>
       <c r="E28">
-        <v>0.01599836349487305</v>
+        <v>70.96774193548387</v>
       </c>
       <c r="F28">
-        <v>0.01400017738342285</v>
+        <v>70.96774193548387</v>
       </c>
       <c r="G28">
-        <v>0.03300142288208008</v>
+        <v>0.02199959754943848</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>0.01599955558776855</v>
       </c>
       <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.03799986839294434</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>33.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="E29">
         <v>29.62962962962963</v>
       </c>
-      <c r="D29">
-        <v>62.96296296296296</v>
-      </c>
-      <c r="E29">
-        <v>0.01100039482116699</v>
-      </c>
       <c r="F29">
-        <v>0.01599812507629395</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="G29">
-        <v>0.01703095436096191</v>
+        <v>0.01200056076049805</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>0.01599955558776855</v>
       </c>
       <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.06400084495544434</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>11.66666666666667</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>50</v>
       </c>
       <c r="E30">
-        <v>0.0169985294342041</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="F30">
-        <v>0.05299997329711914</v>
+        <v>51.66666666666667</v>
       </c>
       <c r="G30">
-        <v>0.02900218963623047</v>
+        <v>0.02100038528442383</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>0.06000185012817383</v>
       </c>
       <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.08799886703491211</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
         <v>81.35593220338984</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>64.40677966101694</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>77.96610169491525</v>
       </c>
-      <c r="E31">
-        <v>0.0150301456451416</v>
-      </c>
-      <c r="F31">
-        <v>0.04696941375732422</v>
-      </c>
       <c r="G31">
-        <v>0.02500152587890625</v>
+        <v>0.02200174331665039</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>0.05299782752990723</v>
       </c>
       <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.04400014877319336</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
         <v>87.5</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>87.5</v>
       </c>
-      <c r="D32">
-        <v>81.25</v>
-      </c>
-      <c r="E32">
-        <v>0.01300191879272461</v>
-      </c>
       <c r="F32">
-        <v>0.03899836540222168</v>
+        <v>87.5</v>
       </c>
       <c r="G32">
-        <v>0.02200055122375488</v>
+        <v>0.01500058174133301</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>0.04600024223327637</v>
       </c>
       <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.04800057411193848</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>55.73770491803278</v>
+        <v>10</v>
       </c>
       <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>57.37704918032787</v>
+      </c>
+      <c r="E33">
         <v>46.72131147540984</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>54.91803278688525</v>
       </c>
-      <c r="E33">
-        <v>0.01900219917297363</v>
-      </c>
-      <c r="F33">
-        <v>0.2039978504180908</v>
-      </c>
       <c r="G33">
-        <v>0.03800177574157715</v>
+        <v>0.03300213813781738</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>0.2549974918365479</v>
       </c>
       <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.05900120735168457</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>45.90163934426229</v>
+        <v>10</v>
       </c>
       <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
         <v>46.72131147540984</v>
       </c>
-      <c r="D34">
-        <v>48.36065573770492</v>
-      </c>
       <c r="E34">
-        <v>0.02899932861328125</v>
+        <v>46.72131147540984</v>
       </c>
       <c r="F34">
-        <v>0.2109997272491455</v>
+        <v>50</v>
       </c>
       <c r="G34">
-        <v>0.03600049018859863</v>
+        <v>0.0280003547668457</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>0.2200009822845459</v>
       </c>
       <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.1020011901855469</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>68.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="E35">
         <v>63.33333333333333</v>
       </c>
-      <c r="D35">
-        <v>75</v>
-      </c>
-      <c r="E35">
-        <v>0.02299690246582031</v>
-      </c>
       <c r="F35">
-        <v>0.2380027770996094</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="G35">
-        <v>0.02399826049804688</v>
+        <v>0.02000021934509277</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>0.2509989738464355</v>
       </c>
       <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.09200024604797363</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>62.93103448275862</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>62.93103448275862</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>62.93103448275862</v>
       </c>
       <c r="E36">
-        <v>0.02400016784667969</v>
+        <v>62.93103448275862</v>
       </c>
       <c r="F36">
-        <v>0.03400039672851562</v>
+        <v>62.93103448275862</v>
       </c>
       <c r="G36">
-        <v>0.03800082206726074</v>
+        <v>0.02099823951721191</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>0.03100132942199707</v>
       </c>
       <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.05899930000305176</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37">
-        <v>96.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>96.66666666666667</v>
       </c>
       <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>96.66666666666667</v>
+      </c>
+      <c r="G37">
         <v>0.01800036430358887</v>
       </c>
-      <c r="F37">
-        <v>0.01599955558776855</v>
-      </c>
-      <c r="G37">
-        <v>0.02599835395812988</v>
-      </c>
       <c r="H37">
-        <v>10</v>
+        <v>0.0169985294342041</v>
       </c>
       <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.02500152587890625</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>4.625</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>5.125</v>
       </c>
       <c r="E38">
-        <v>0.3090007305145264</v>
+        <v>4.2</v>
       </c>
       <c r="F38">
-        <v>0.2049970626831055</v>
+        <v>4.75</v>
       </c>
       <c r="G38">
-        <v>0.5610017776489258</v>
+        <v>0.402000904083252</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>0.2580013275146484</v>
       </c>
       <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.7229976654052734</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="E39">
         <v>1.388888888888889</v>
       </c>
-      <c r="C39">
-        <v>1.388888888888889</v>
-      </c>
-      <c r="D39">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="E39">
-        <v>0.02196907997131348</v>
-      </c>
       <c r="F39">
-        <v>0.1680011749267578</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="G39">
-        <v>0.04700064659118652</v>
+        <v>0.01999998092651367</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>0.1920006275177002</v>
       </c>
       <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.05899906158447266</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
         <v>28.57142857142857</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>42.85714285714285</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>42.85714285714285</v>
       </c>
-      <c r="E40">
-        <v>0.01200032234191895</v>
-      </c>
-      <c r="F40">
-        <v>0.2630014419555664</v>
-      </c>
       <c r="G40">
-        <v>0.0169987678527832</v>
+        <v>0.01299715042114258</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>0.281001091003418</v>
       </c>
       <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.04299831390380859</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>73.37013669821241</v>
+        <v>10</v>
       </c>
       <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>78.4963196635121</v>
+      </c>
+      <c r="E41">
         <v>64.66876971608832</v>
       </c>
-      <c r="D41">
-        <v>76.70872765509989</v>
-      </c>
-      <c r="E41">
-        <v>0.3370270729064941</v>
-      </c>
       <c r="F41">
-        <v>0.1659729480743408</v>
+        <v>78.96950578338591</v>
       </c>
       <c r="G41">
-        <v>0.4869959354400635</v>
+        <v>0.3109984397888184</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>0.1900019645690918</v>
       </c>
       <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.8889961242675781</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="E42">
+        <v>55.11363636363637</v>
+      </c>
+      <c r="F42">
         <v>74.43181818181817</v>
       </c>
-      <c r="C42">
-        <v>55.11363636363637</v>
-      </c>
-      <c r="D42">
-        <v>74.43181818181817</v>
-      </c>
-      <c r="E42">
-        <v>0.02399921417236328</v>
-      </c>
-      <c r="F42">
-        <v>0.04199910163879395</v>
-      </c>
       <c r="G42">
-        <v>0.02799892425537109</v>
+        <v>0.03399825096130371</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>0.04600095748901367</v>
       </c>
       <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.07700085639953613</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>72.41379310344827</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>49.42528735632184</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>72.41379310344827</v>
       </c>
       <c r="E43">
-        <v>0.02100110054016113</v>
+        <v>49.42528735632184</v>
       </c>
       <c r="F43">
-        <v>0.01999998092651367</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="G43">
-        <v>0.03003025054931641</v>
+        <v>0.02299928665161133</v>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>0.02400040626525879</v>
       </c>
       <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.03099989891052246</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>73.56321839080459</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>73.56321839080459</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>73.56321839080459</v>
       </c>
       <c r="E44">
-        <v>0.02299952507019043</v>
+        <v>73.56321839080459</v>
       </c>
       <c r="F44">
-        <v>0.02399873733520508</v>
+        <v>73.56321839080459</v>
       </c>
       <c r="G44">
-        <v>0.02904033660888672</v>
+        <v>0.0209963321685791</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>0.02300238609313965</v>
       </c>
       <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.07499933242797852</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>77.01149425287356</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>50.57471264367817</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>83.9080459770115</v>
       </c>
       <c r="E45">
-        <v>0.01799535751342773</v>
+        <v>50.57471264367817</v>
       </c>
       <c r="F45">
-        <v>0.02197742462158203</v>
+        <v>83.9080459770115</v>
       </c>
       <c r="G45">
-        <v>0.02499771118164062</v>
+        <v>0.01900291442871094</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>0.02299809455871582</v>
       </c>
       <c r="I45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.04700207710266113</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>84.92307692307692</v>
+        <v>10</v>
       </c>
       <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>91.81538461538462</v>
+      </c>
+      <c r="E46">
         <v>51.87692307692308</v>
       </c>
-      <c r="D46">
-        <v>90.33846153846153</v>
-      </c>
-      <c r="E46">
-        <v>0.155001163482666</v>
-      </c>
       <c r="F46">
-        <v>0.2990283966064453</v>
+        <v>92.18461538461538</v>
       </c>
       <c r="G46">
-        <v>0.1609694957733154</v>
+        <v>0.1789994239807129</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>0.3270020484924316</v>
       </c>
       <c r="I46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.3989973068237305</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>93.78378378378378</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>93.78378378378378</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>93.78378378378378</v>
       </c>
       <c r="E47">
-        <v>0.04999637603759766</v>
+        <v>93.78378378378378</v>
       </c>
       <c r="F47">
-        <v>0.1710009574890137</v>
+        <v>93.78378378378378</v>
       </c>
       <c r="G47">
-        <v>0.06499910354614258</v>
+        <v>0.05099773406982422</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>0.1700010299682617</v>
       </c>
       <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1349992752075195</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>96.75675675675676</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>96.75675675675676</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>96.75675675675676</v>
       </c>
       <c r="E48">
-        <v>0.03799676895141602</v>
+        <v>96.75675675675676</v>
       </c>
       <c r="F48">
-        <v>0.1450004577636719</v>
+        <v>96.75675675675676</v>
       </c>
       <c r="G48">
-        <v>0.0690007209777832</v>
+        <v>0.06001949310302734</v>
       </c>
       <c r="H48">
-        <v>10</v>
+        <v>0.1809704303741455</v>
       </c>
       <c r="I48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.2009987831115723</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
         <v>87.17948717948718</v>
       </c>
-      <c r="C49">
+      <c r="E49">
         <v>82.05128205128204</v>
       </c>
-      <c r="D49">
-        <v>84.61538461538461</v>
-      </c>
-      <c r="E49">
-        <v>0.01199841499328613</v>
-      </c>
       <c r="F49">
-        <v>0.05099844932556152</v>
+        <v>89.74358974358975</v>
       </c>
       <c r="G49">
-        <v>0.03099989891052246</v>
+        <v>0.01599836349487305</v>
       </c>
       <c r="H49">
-        <v>10</v>
+        <v>0.05200052261352539</v>
       </c>
       <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.03899812698364258</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>16.01067378252168</v>
+        <v>10</v>
       </c>
       <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>15.41027351567712</v>
+      </c>
+      <c r="E50">
         <v>9.873248832555037</v>
       </c>
-      <c r="D50">
-        <v>12.00800533689126</v>
-      </c>
-      <c r="E50">
-        <v>0.1010000705718994</v>
-      </c>
       <c r="F50">
-        <v>0.0969998836517334</v>
+        <v>14.80987324883256</v>
       </c>
       <c r="G50">
-        <v>0.130000114440918</v>
+        <v>0.1359944343566895</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>0.08999919891357422</v>
       </c>
       <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.2209987640380859</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>70.27027027027027</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>70.27027027027027</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>70.27027027027027</v>
       </c>
       <c r="E51">
-        <v>0.01900076866149902</v>
+        <v>70.27027027027027</v>
       </c>
       <c r="F51">
-        <v>0.02799773216247559</v>
+        <v>70.27027027027027</v>
       </c>
       <c r="G51">
+        <v>0.01299762725830078</v>
+      </c>
+      <c r="H51">
+        <v>0.03400278091430664</v>
+      </c>
+      <c r="I51">
+        <v>0.05999946594238281</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>41.46341463414634</v>
+      </c>
+      <c r="E52">
+        <v>41.48340663734506</v>
+      </c>
+      <c r="F52">
+        <v>42.50299880047981</v>
+      </c>
+      <c r="G52">
+        <v>0.6839985847473145</v>
+      </c>
+      <c r="H52">
+        <v>0.3670003414154053</v>
+      </c>
+      <c r="I52">
+        <v>1.625999450683594</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>81.04265402843602</v>
+      </c>
+      <c r="E53">
+        <v>64.45497630331754</v>
+      </c>
+      <c r="F53">
+        <v>79.14691943127961</v>
+      </c>
+      <c r="G53">
+        <v>0.03499674797058105</v>
+      </c>
+      <c r="H53">
+        <v>0.09200263023376465</v>
+      </c>
+      <c r="I53">
+        <v>0.07202625274658203</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="F54">
+        <v>52.38095238095239</v>
+      </c>
+      <c r="G54">
+        <v>0.01799893379211426</v>
+      </c>
+      <c r="H54">
+        <v>0.02500104904174805</v>
+      </c>
+      <c r="I54">
+        <v>0.04899978637695312</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>91.87545907124786</v>
+      </c>
+      <c r="E55">
+        <v>79.52542234554802</v>
+      </c>
+      <c r="F55">
+        <v>92.622214967763</v>
+      </c>
+      <c r="G55">
+        <v>6.757000684738159</v>
+      </c>
+      <c r="H55">
+        <v>3.353998422622681</v>
+      </c>
+      <c r="I55">
+        <v>16.74026203155518</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>90</v>
+      </c>
+      <c r="E56">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>40</v>
+      </c>
+      <c r="G56">
+        <v>0.009001016616821289</v>
+      </c>
+      <c r="H56">
+        <v>0.07600021362304688</v>
+      </c>
+      <c r="I56">
+        <v>0.01500058174133301</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>79.37024972855592</v>
+      </c>
+      <c r="E57">
+        <v>57.65472312703584</v>
+      </c>
+      <c r="F57">
+        <v>82.73615635179154</v>
+      </c>
+      <c r="G57">
+        <v>0.06902909278869629</v>
+      </c>
+      <c r="H57">
+        <v>0.1629691123962402</v>
+      </c>
+      <c r="I57">
+        <v>0.1550021171569824</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>75</v>
+      </c>
+      <c r="E58">
+        <v>31.25</v>
+      </c>
+      <c r="F58">
+        <v>68.75</v>
+      </c>
+      <c r="G58">
+        <v>0.01299786567687988</v>
+      </c>
+      <c r="H58">
+        <v>0.05100059509277344</v>
+      </c>
+      <c r="I58">
+        <v>0.05800032615661621</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>62.5</v>
+      </c>
+      <c r="E59">
+        <v>31.25</v>
+      </c>
+      <c r="F59">
+        <v>56.25</v>
+      </c>
+      <c r="G59">
+        <v>0.01197028160095215</v>
+      </c>
+      <c r="H59">
+        <v>0.09000062942504883</v>
+      </c>
+      <c r="I59">
         <v>0.02300000190734863</v>
       </c>
-      <c r="H51">
-        <v>10</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52">
-        <v>41.68332666933227</v>
-      </c>
-      <c r="C52">
-        <v>41.48340663734506</v>
-      </c>
-      <c r="D52">
-        <v>41.58336665333866</v>
-      </c>
-      <c r="E52">
-        <v>0.5609979629516602</v>
-      </c>
-      <c r="F52">
-        <v>0.3440015316009521</v>
-      </c>
-      <c r="G52">
-        <v>0.9079999923706055</v>
-      </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53">
-        <v>76.30331753554502</v>
-      </c>
-      <c r="C53">
-        <v>64.45497630331754</v>
-      </c>
-      <c r="D53">
-        <v>78.67298578199052</v>
-      </c>
-      <c r="E53">
-        <v>0.02199912071228027</v>
-      </c>
-      <c r="F53">
-        <v>0.08899855613708496</v>
-      </c>
-      <c r="G53">
-        <v>0.03600072860717773</v>
-      </c>
-      <c r="H53">
-        <v>10</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="C54">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="D54">
-        <v>47.61904761904761</v>
-      </c>
-      <c r="E54">
-        <v>0.01299953460693359</v>
-      </c>
-      <c r="F54">
-        <v>0.01999878883361816</v>
-      </c>
-      <c r="G54">
-        <v>0.02500414848327637</v>
-      </c>
-      <c r="H54">
-        <v>10</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55">
-        <v>93.001713865992</v>
-      </c>
-      <c r="C55">
-        <v>79.52542234554802</v>
-      </c>
-      <c r="D55">
-        <v>93.09148779890639</v>
-      </c>
-      <c r="E55">
-        <v>5.955000877380371</v>
-      </c>
-      <c r="F55">
-        <v>3.099001169204712</v>
-      </c>
-      <c r="G55">
-        <v>10.90599846839905</v>
-      </c>
-      <c r="H55">
-        <v>10</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56">
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>68</v>
+      </c>
+      <c r="E60">
+        <v>70.5</v>
+      </c>
+      <c r="F60">
+        <v>70.5</v>
+      </c>
+      <c r="G60">
+        <v>0.0279991626739502</v>
+      </c>
+      <c r="H60">
+        <v>0.1399986743927002</v>
+      </c>
+      <c r="I60">
+        <v>0.04400181770324707</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
         <v>70</v>
       </c>
-      <c r="C56">
-        <v>40</v>
-      </c>
-      <c r="D56">
-        <v>70</v>
-      </c>
-      <c r="E56">
-        <v>0.01100039482116699</v>
-      </c>
-      <c r="F56">
-        <v>0.07500052452087402</v>
-      </c>
-      <c r="G56">
-        <v>0.01999855041503906</v>
-      </c>
-      <c r="H56">
-        <v>10</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57">
-        <v>77.52442996742671</v>
-      </c>
-      <c r="C57">
-        <v>57.65472312703584</v>
-      </c>
-      <c r="D57">
-        <v>79.58740499457112</v>
-      </c>
-      <c r="E57">
-        <v>0.07799983024597168</v>
-      </c>
-      <c r="F57">
-        <v>0.1549983024597168</v>
-      </c>
-      <c r="G57">
-        <v>0.1000018119812012</v>
-      </c>
-      <c r="H57">
-        <v>10</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58">
-        <v>62.5</v>
-      </c>
-      <c r="C58">
-        <v>31.25</v>
-      </c>
-      <c r="D58">
-        <v>68.75</v>
-      </c>
-      <c r="E58">
-        <v>0.01099896430969238</v>
-      </c>
-      <c r="F58">
-        <v>0.04400181770324707</v>
-      </c>
-      <c r="G58">
-        <v>0.02499818801879883</v>
-      </c>
-      <c r="H58">
-        <v>10</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59">
-        <v>62.5</v>
-      </c>
-      <c r="C59">
-        <v>31.25</v>
-      </c>
-      <c r="D59">
-        <v>50</v>
-      </c>
-      <c r="E59">
-        <v>0.01100063323974609</v>
-      </c>
-      <c r="F59">
-        <v>0.08899974822998047</v>
-      </c>
-      <c r="G59">
-        <v>0.01800012588500977</v>
-      </c>
-      <c r="H59">
-        <v>10</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60">
-        <v>68</v>
-      </c>
-      <c r="C60">
-        <v>70.5</v>
-      </c>
-      <c r="D60">
-        <v>73</v>
-      </c>
-      <c r="E60">
-        <v>0.0299990177154541</v>
-      </c>
-      <c r="F60">
-        <v>0.1250011920928955</v>
-      </c>
-      <c r="G60">
-        <v>0.04900074005126953</v>
-      </c>
-      <c r="H60">
-        <v>10</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
-        <v>68</v>
-      </c>
       <c r="B61">
-        <v>24.46448703494927</v>
+        <v>10</v>
       </c>
       <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>24.5772266065389</v>
+      </c>
+      <c r="E61">
         <v>7.328072153325817</v>
       </c>
-      <c r="D61">
-        <v>31.34160090191657</v>
-      </c>
-      <c r="E61">
-        <v>0.0709998607635498</v>
-      </c>
       <c r="F61">
-        <v>0.1139986515045166</v>
+        <v>31.56708004509583</v>
       </c>
       <c r="G61">
-        <v>0.1029999256134033</v>
+        <v>0.06999802589416504</v>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>0.1110281944274902</v>
       </c>
       <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.187976598739624</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>41.93548387096774</v>
+      </c>
+      <c r="E62">
         <v>35.48387096774194</v>
       </c>
-      <c r="C62">
+      <c r="F62">
         <v>35.48387096774194</v>
       </c>
-      <c r="D62">
-        <v>38.70967741935484</v>
-      </c>
-      <c r="E62">
-        <v>0.01900172233581543</v>
-      </c>
-      <c r="F62">
-        <v>0.12599778175354</v>
-      </c>
       <c r="G62">
-        <v>0.02500033378601074</v>
+        <v>0.01399922370910645</v>
       </c>
       <c r="H62">
-        <v>10</v>
+        <v>0.1199996471405029</v>
       </c>
       <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.04999971389770508</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>79.78723404255319</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>79.78723404255319</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>79.78723404255319</v>
       </c>
       <c r="E63">
-        <v>0.02800178527832031</v>
+        <v>79.78723404255319</v>
       </c>
       <c r="F63">
-        <v>0.05699992179870605</v>
+        <v>79.78723404255319</v>
       </c>
       <c r="G63">
-        <v>0.04699921607971191</v>
+        <v>0.02300095558166504</v>
       </c>
       <c r="H63">
-        <v>10</v>
+        <v>0.06799840927124023</v>
       </c>
       <c r="I63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.07100152969360352</v>
+      </c>
+      <c r="J63">
+        <v>10</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>38.91625615763547</v>
+        <v>10</v>
       </c>
       <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>39.90147783251231</v>
+      </c>
+      <c r="E64">
         <v>33.74384236453201</v>
       </c>
-      <c r="D64">
-        <v>35.46798029556651</v>
-      </c>
-      <c r="E64">
-        <v>0.04099941253662109</v>
-      </c>
       <c r="F64">
-        <v>0.06399989128112793</v>
+        <v>35.96059113300493</v>
       </c>
       <c r="G64">
-        <v>0.06399989128112793</v>
+        <v>0.0409998893737793</v>
       </c>
       <c r="H64">
-        <v>10</v>
+        <v>0.06699872016906738</v>
       </c>
       <c r="I64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.09200048446655273</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>97.32142857142857</v>
+      </c>
+      <c r="E65">
         <v>97.5</v>
       </c>
-      <c r="C65">
-        <v>97.5</v>
-      </c>
-      <c r="D65">
-        <v>96.42857142857143</v>
-      </c>
-      <c r="E65">
-        <v>0.0540008544921875</v>
-      </c>
       <c r="F65">
-        <v>0.08699989318847656</v>
+        <v>96.96428571428571</v>
       </c>
       <c r="G65">
-        <v>0.07599973678588867</v>
+        <v>0.04300069808959961</v>
       </c>
       <c r="H65">
-        <v>10</v>
+        <v>0.07703161239624023</v>
       </c>
       <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.2259695529937744</v>
+      </c>
+      <c r="J65">
+        <v>10</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>91.07142857142857</v>
+        <v>10</v>
       </c>
       <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
         <v>97.32142857142857</v>
       </c>
-      <c r="D66">
-        <v>91.78571428571428</v>
-      </c>
       <c r="E66">
-        <v>0.04699802398681641</v>
+        <v>97.32142857142857</v>
       </c>
       <c r="F66">
-        <v>0.08200168609619141</v>
+        <v>92.32142857142858</v>
       </c>
       <c r="G66">
-        <v>0.08299875259399414</v>
+        <v>0.06800031661987305</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>0.08999967575073242</v>
       </c>
       <c r="I66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1010000705718994</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>91.25827814569536</v>
+      </c>
+      <c r="E67">
         <v>91.12582781456953</v>
       </c>
-      <c r="C67">
-        <v>91.12582781456953</v>
-      </c>
-      <c r="D67">
-        <v>91.12582781456953</v>
-      </c>
-      <c r="E67">
-        <v>0.08299922943115234</v>
-      </c>
       <c r="F67">
-        <v>0.07800030708312988</v>
+        <v>91.25827814569536</v>
       </c>
       <c r="G67">
-        <v>0.08999991416931152</v>
+        <v>0.06799888610839844</v>
       </c>
       <c r="H67">
-        <v>10</v>
+        <v>0.08799982070922852</v>
       </c>
       <c r="I67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.1679990291595459</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>98.52216748768473</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>98.52216748768473</v>
+        <v>5</v>
       </c>
       <c r="D68">
         <v>98.52216748768473</v>
       </c>
       <c r="E68">
-        <v>0.04199934005737305</v>
+        <v>98.52216748768473</v>
       </c>
       <c r="F68">
-        <v>0.08199954032897949</v>
+        <v>98.52216748768473</v>
       </c>
       <c r="G68">
-        <v>0.08400082588195801</v>
+        <v>0.03999853134155273</v>
       </c>
       <c r="H68">
-        <v>10</v>
+        <v>0.07600069046020508</v>
       </c>
       <c r="I68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.1379983425140381</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>65.11627906976744</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>65.11627906976744</v>
+        <v>5</v>
       </c>
       <c r="D69">
         <v>65.11627906976744</v>
       </c>
       <c r="E69">
-        <v>0.01900005340576172</v>
+        <v>65.11627906976744</v>
       </c>
       <c r="F69">
-        <v>0.02000093460083008</v>
+        <v>67.44186046511628</v>
       </c>
       <c r="G69">
-        <v>0.03200173377990723</v>
+        <v>0.02100205421447754</v>
       </c>
       <c r="H69">
-        <v>10</v>
+        <v>0.01999616622924805</v>
       </c>
       <c r="I69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.03300213813781738</v>
+      </c>
+      <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>88.62559241706161</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>88.62559241706161</v>
+        <v>5</v>
       </c>
       <c r="D70">
         <v>88.62559241706161</v>
       </c>
       <c r="E70">
-        <v>0.05800008773803711</v>
+        <v>88.62559241706161</v>
       </c>
       <c r="F70">
-        <v>0.07399988174438477</v>
+        <v>88.62559241706161</v>
       </c>
       <c r="G70">
-        <v>0.09000158309936523</v>
+        <v>0.06599974632263184</v>
       </c>
       <c r="H70">
-        <v>10</v>
+        <v>0.07900166511535645</v>
       </c>
       <c r="I70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.09199881553649902</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>92.85714285714286</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>92.85714285714286</v>
+        <v>5</v>
       </c>
       <c r="D71">
         <v>92.85714285714286</v>
       </c>
       <c r="E71">
-        <v>0.04899787902832031</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="F71">
-        <v>0.07900023460388184</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="G71">
-        <v>0.07400012016296387</v>
+        <v>0.04399943351745605</v>
       </c>
       <c r="H71">
-        <v>10</v>
+        <v>0.08299994468688965</v>
       </c>
       <c r="I71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.08599972724914551</v>
+      </c>
+      <c r="J71">
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>78.64583333333334</v>
+        <v>10</v>
       </c>
       <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>70.83333333333334</v>
+      </c>
+      <c r="E72">
         <v>65.10416666666666</v>
       </c>
-      <c r="D72">
-        <v>72.39583333333334</v>
-      </c>
-      <c r="E72">
-        <v>0.03099751472473145</v>
-      </c>
       <c r="F72">
-        <v>0.06999993324279785</v>
+        <v>71.35416666666666</v>
       </c>
       <c r="G72">
-        <v>0.04300141334533691</v>
+        <v>0.03799939155578613</v>
       </c>
       <c r="H72">
-        <v>10</v>
+        <v>0.0729985237121582</v>
       </c>
       <c r="I72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.08400106430053711</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>39.1025641025641</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>39.1025641025641</v>
+        <v>5</v>
       </c>
       <c r="D73">
         <v>39.1025641025641</v>
       </c>
       <c r="E73">
-        <v>0.0780024528503418</v>
+        <v>39.1025641025641</v>
       </c>
       <c r="F73">
-        <v>0.05399942398071289</v>
+        <v>39.1025641025641</v>
       </c>
       <c r="G73">
-        <v>0.1129984855651855</v>
+        <v>0.09499597549438477</v>
       </c>
       <c r="H73">
-        <v>10</v>
+        <v>0.05000472068786621</v>
       </c>
       <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.2949662208557129</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>39.1025641025641</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>39.1025641025641</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>39.1025641025641</v>
       </c>
       <c r="E74">
-        <v>0.09400105476379395</v>
+        <v>39.1025641025641</v>
       </c>
       <c r="F74">
-        <v>0.05099940299987793</v>
+        <v>39.1025641025641</v>
       </c>
       <c r="G74">
-        <v>0.1339988708496094</v>
+        <v>0.09200191497802734</v>
       </c>
       <c r="H74">
-        <v>10</v>
+        <v>0.06599998474121094</v>
       </c>
       <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.4080009460449219</v>
+      </c>
+      <c r="J74">
+        <v>10</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>40.37267080745342</v>
+        <v>10</v>
       </c>
       <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>44.84472049689441</v>
+      </c>
+      <c r="E75">
         <v>2.732919254658385</v>
       </c>
-      <c r="D75">
-        <v>55.03105590062112</v>
-      </c>
-      <c r="E75">
-        <v>0.08999967575073242</v>
-      </c>
       <c r="F75">
-        <v>0.1500017642974854</v>
+        <v>47.20496894409938</v>
       </c>
       <c r="G75">
-        <v>0.1029982566833496</v>
+        <v>0.07900023460388184</v>
       </c>
       <c r="H75">
-        <v>10</v>
+        <v>0.1500015258789062</v>
       </c>
       <c r="I75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.1609985828399658</v>
+      </c>
+      <c r="J75">
+        <v>10</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>80.55555555555556</v>
+        <v>10</v>
       </c>
       <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>63.88888888888889</v>
+      </c>
+      <c r="E76">
         <v>38.88888888888889</v>
       </c>
-      <c r="D76">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="E76">
-        <v>0.01899909973144531</v>
-      </c>
       <c r="F76">
-        <v>0.03700065612792969</v>
+        <v>75</v>
       </c>
       <c r="G76">
-        <v>0.02900028228759766</v>
+        <v>0.01399970054626465</v>
       </c>
       <c r="H76">
-        <v>10</v>
+        <v>0.03299880027770996</v>
       </c>
       <c r="I76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.04003071784973145</v>
+      </c>
+      <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>3.367003367003367</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>2.02020202020202</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>7.07070707070707</v>
       </c>
       <c r="E77">
-        <v>0.04199934005737305</v>
+        <v>2.02020202020202</v>
       </c>
       <c r="F77">
-        <v>0.04100298881530762</v>
+        <v>7.07070707070707</v>
       </c>
       <c r="G77">
-        <v>0.05099773406982422</v>
+        <v>0.03602695465087891</v>
       </c>
       <c r="H77">
-        <v>10</v>
+        <v>0.03397130966186523</v>
       </c>
       <c r="I77">
+        <v>0.1309986114501953</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77">
         <v>1</v>
       </c>
     </row>
